--- a/pred_ohlcv/54/2019-10-17 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-17 CMT ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C2" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="D2" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E2" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="F2" t="n">
-        <v>31.3942</v>
+        <v>725.4589</v>
       </c>
       <c r="G2" t="n">
-        <v>20.84333333333334</v>
+        <v>20.84833333333334</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -437,21 +445,24 @@
         <v>20.8</v>
       </c>
       <c r="C3" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="D3" t="n">
         <v>20.8</v>
       </c>
       <c r="E3" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="F3" t="n">
-        <v>487.6442307692308</v>
+        <v>31.3942</v>
       </c>
       <c r="G3" t="n">
-        <v>20.83666666666667</v>
+        <v>20.84333333333334</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="C4" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="D4" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="E4" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="F4" t="n">
-        <v>10010</v>
+        <v>487.6442307692308</v>
       </c>
       <c r="G4" t="n">
-        <v>20.82666666666666</v>
+        <v>20.83666666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="C5" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="D5" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="E5" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="F5" t="n">
-        <v>30958.1902</v>
+        <v>10010</v>
       </c>
       <c r="G5" t="n">
-        <v>20.815</v>
+        <v>20.82666666666666</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>20.5</v>
       </c>
       <c r="F6" t="n">
-        <v>19.0439</v>
+        <v>30958.1902</v>
       </c>
       <c r="G6" t="n">
-        <v>20.81166666666666</v>
+        <v>20.815</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>20.5</v>
       </c>
       <c r="F7" t="n">
-        <v>490</v>
+        <v>19.0439</v>
       </c>
       <c r="G7" t="n">
-        <v>20.80833333333333</v>
+        <v>20.81166666666666</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -567,21 +590,24 @@
         <v>20.5</v>
       </c>
       <c r="C8" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="D8" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="E8" t="n">
         <v>20.5</v>
       </c>
       <c r="F8" t="n">
-        <v>1000.0001</v>
+        <v>490</v>
       </c>
       <c r="G8" t="n">
-        <v>20.80166666666667</v>
+        <v>20.80833333333333</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -593,21 +619,24 @@
         <v>20.5</v>
       </c>
       <c r="C9" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="D9" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E9" t="n">
         <v>20.5</v>
       </c>
-      <c r="E9" t="n">
-        <v>20.4</v>
-      </c>
       <c r="F9" t="n">
-        <v>36934.7297</v>
+        <v>1000.0001</v>
       </c>
       <c r="G9" t="n">
-        <v>20.795</v>
+        <v>20.80166666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="C10" t="n">
         <v>20.4</v>
       </c>
       <c r="D10" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="E10" t="n">
         <v>20.4</v>
       </c>
       <c r="F10" t="n">
-        <v>344.9652</v>
+        <v>36934.7297</v>
       </c>
       <c r="G10" t="n">
-        <v>20.78833333333334</v>
+        <v>20.795</v>
       </c>
       <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="C11" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="D11" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="E11" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="F11" t="n">
-        <v>10030.91787439613</v>
+        <v>344.9652</v>
       </c>
       <c r="G11" t="n">
         <v>20.78833333333334</v>
       </c>
       <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="C12" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="D12" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="E12" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="F12" t="n">
-        <v>16999.9999</v>
+        <v>10030.91787439613</v>
       </c>
       <c r="G12" t="n">
-        <v>20.785</v>
+        <v>20.78833333333334</v>
       </c>
       <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="C13" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="D13" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="E13" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="F13" t="n">
-        <v>924.6917692307692</v>
+        <v>16999.9999</v>
       </c>
       <c r="G13" t="n">
-        <v>20.78666666666667</v>
+        <v>20.785</v>
       </c>
       <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="C14" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D14" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="E14" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="F14" t="n">
-        <v>16075.5857</v>
+        <v>924.6917692307692</v>
       </c>
       <c r="G14" t="n">
         <v>20.78666666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="C15" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="D15" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="E15" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="F15" t="n">
-        <v>118.2211</v>
+        <v>16075.5857</v>
       </c>
       <c r="G15" t="n">
-        <v>20.78333333333333</v>
+        <v>20.78666666666667</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>20.8</v>
       </c>
       <c r="C16" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="D16" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E16" t="n">
         <v>20.8</v>
       </c>
       <c r="F16" t="n">
-        <v>21392.4124</v>
+        <v>118.2211</v>
       </c>
       <c r="G16" t="n">
-        <v>20.78666666666667</v>
+        <v>20.78333333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="E17" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="F17" t="n">
-        <v>26539.9523</v>
+        <v>21392.4124</v>
       </c>
       <c r="G17" t="n">
-        <v>20.78833333333333</v>
+        <v>20.78666666666667</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="E18" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="F18" t="n">
-        <v>6810</v>
+        <v>26539.9523</v>
       </c>
       <c r="G18" t="n">
-        <v>20.78166666666666</v>
+        <v>20.78833333333333</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C19" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="D19" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E19" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="F19" t="n">
-        <v>4135.452</v>
+        <v>6810</v>
       </c>
       <c r="G19" t="n">
-        <v>20.77833333333333</v>
+        <v>20.78166666666666</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="C20" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="D20" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="E20" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="F20" t="n">
-        <v>37759.548</v>
+        <v>4135.452</v>
       </c>
       <c r="G20" t="n">
-        <v>20.77166666666666</v>
+        <v>20.77833333333333</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>20.4</v>
       </c>
       <c r="D21" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="E21" t="n">
-        <v>21</v>
+        <v>20.4</v>
       </c>
       <c r="F21" t="n">
-        <v>907.65</v>
+        <v>37759.548</v>
       </c>
       <c r="G21" t="n">
-        <v>20.775</v>
+        <v>20.77166666666666</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,19 +993,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="E22" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="F22" t="n">
-        <v>7000</v>
+        <v>907.65</v>
       </c>
       <c r="G22" t="n">
         <v>20.775</v>
@@ -948,30 +1013,36 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="C23" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="D23" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="E23" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="F23" t="n">
-        <v>117.9255</v>
+        <v>7000</v>
       </c>
       <c r="G23" t="n">
-        <v>20.77666666666666</v>
+        <v>20.775</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -983,21 +1054,24 @@
         <v>20.8</v>
       </c>
       <c r="C24" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="D24" t="n">
         <v>20.8</v>
       </c>
       <c r="E24" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="F24" t="n">
-        <v>3745.9336</v>
+        <v>117.9255</v>
       </c>
       <c r="G24" t="n">
         <v>20.77666666666666</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C25" t="n">
         <v>20.7</v>
       </c>
       <c r="D25" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="E25" t="n">
         <v>20.7</v>
       </c>
       <c r="F25" t="n">
-        <v>74.0664</v>
+        <v>3745.9336</v>
       </c>
       <c r="G25" t="n">
-        <v>20.77333333333333</v>
+        <v>20.77666666666666</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="C26" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="D26" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="E26" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="F26" t="n">
-        <v>947.8672985781991</v>
+        <v>74.0664</v>
       </c>
       <c r="G26" t="n">
-        <v>20.77666666666666</v>
+        <v>20.77333333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>21.1</v>
       </c>
       <c r="F27" t="n">
-        <v>6432.132701421801</v>
+        <v>947.8672985781991</v>
       </c>
       <c r="G27" t="n">
         <v>20.77666666666666</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1087,21 +1170,24 @@
         <v>21.1</v>
       </c>
       <c r="C28" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="D28" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="E28" t="n">
         <v>21.1</v>
       </c>
       <c r="F28" t="n">
-        <v>14877.5952</v>
+        <v>6432.132701421801</v>
       </c>
       <c r="G28" t="n">
-        <v>20.78166666666666</v>
+        <v>20.77666666666666</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="C29" t="n">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="D29" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="E29" t="n">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="F29" t="n">
-        <v>7230.0001</v>
+        <v>14877.5952</v>
       </c>
       <c r="G29" t="n">
         <v>20.78166666666666</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>20.7</v>
       </c>
       <c r="F30" t="n">
-        <v>3620.0001</v>
+        <v>7230.0001</v>
       </c>
       <c r="G30" t="n">
-        <v>20.775</v>
+        <v>20.78166666666666</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1165,21 +1257,24 @@
         <v>20.8</v>
       </c>
       <c r="C31" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D31" t="n">
         <v>20.8</v>
       </c>
       <c r="E31" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>3620.0001</v>
       </c>
       <c r="G31" t="n">
         <v>20.775</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,21 +1286,24 @@
         <v>20.8</v>
       </c>
       <c r="C32" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="D32" t="n">
         <v>20.8</v>
       </c>
       <c r="E32" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="F32" t="n">
-        <v>2518.7328</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>20.77333333333333</v>
+        <v>20.775</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,21 +1315,24 @@
         <v>20.8</v>
       </c>
       <c r="C33" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D33" t="n">
         <v>20.8</v>
       </c>
       <c r="E33" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F33" t="n">
-        <v>1810</v>
+        <v>2518.7328</v>
       </c>
       <c r="G33" t="n">
         <v>20.77333333333333</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>20.8</v>
       </c>
       <c r="F34" t="n">
-        <v>4625.812</v>
+        <v>1810</v>
       </c>
       <c r="G34" t="n">
-        <v>20.77</v>
+        <v>20.77333333333333</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>20.8</v>
       </c>
       <c r="F35" t="n">
-        <v>17.486</v>
+        <v>4625.812</v>
       </c>
       <c r="G35" t="n">
         <v>20.77</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,12 +1411,15 @@
         <v>20.8</v>
       </c>
       <c r="F36" t="n">
-        <v>356.2851</v>
+        <v>17.486</v>
       </c>
       <c r="G36" t="n">
         <v>20.77</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>20.8</v>
       </c>
       <c r="F37" t="n">
-        <v>362.4479</v>
+        <v>356.2851</v>
       </c>
       <c r="G37" t="n">
         <v>20.77</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>20.8</v>
       </c>
       <c r="F38" t="n">
-        <v>4637.969</v>
+        <v>362.4479</v>
       </c>
       <c r="G38" t="n">
-        <v>20.765</v>
+        <v>20.77</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="C39" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="D39" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="E39" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="F39" t="n">
-        <v>731.6727</v>
+        <v>4637.969</v>
       </c>
       <c r="G39" t="n">
-        <v>20.76</v>
+        <v>20.765</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="C40" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="D40" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="E40" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>731.6727</v>
       </c>
       <c r="G40" t="n">
-        <v>20.75333333333333</v>
+        <v>20.76</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>20.6</v>
       </c>
       <c r="F41" t="n">
-        <v>6966.1147</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>20.74833333333333</v>
+        <v>20.75333333333333</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,12 +1585,15 @@
         <v>20.6</v>
       </c>
       <c r="F42" t="n">
-        <v>80</v>
+        <v>6966.1147</v>
       </c>
       <c r="G42" t="n">
-        <v>20.74333333333333</v>
+        <v>20.74833333333333</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>20.6</v>
       </c>
       <c r="F43" t="n">
-        <v>4973.3055</v>
+        <v>80</v>
       </c>
       <c r="G43" t="n">
-        <v>20.73666666666666</v>
+        <v>20.74333333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="C44" t="n">
         <v>20.6</v>
       </c>
       <c r="D44" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="E44" t="n">
         <v>20.6</v>
       </c>
       <c r="F44" t="n">
-        <v>12894.6046</v>
+        <v>4973.3055</v>
       </c>
       <c r="G44" t="n">
-        <v>20.72999999999999</v>
+        <v>20.73666666666666</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="C45" t="n">
         <v>20.6</v>
       </c>
       <c r="D45" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="E45" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="F45" t="n">
-        <v>17014.7092</v>
+        <v>12894.6046</v>
       </c>
       <c r="G45" t="n">
-        <v>20.72333333333332</v>
+        <v>20.72999999999999</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1555,21 +1692,24 @@
         <v>20.5</v>
       </c>
       <c r="C46" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="D46" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E46" t="n">
         <v>20.5</v>
       </c>
-      <c r="E46" t="n">
-        <v>20.4</v>
-      </c>
       <c r="F46" t="n">
-        <v>12183.7298</v>
+        <v>17014.7092</v>
       </c>
       <c r="G46" t="n">
-        <v>20.71499999999999</v>
+        <v>20.72333333333332</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="C47" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="D47" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="E47" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="F47" t="n">
-        <v>30604.806</v>
+        <v>12183.7298</v>
       </c>
       <c r="G47" t="n">
-        <v>20.71333333333332</v>
+        <v>20.71499999999999</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="C48" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="D48" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="E48" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>30604.806</v>
       </c>
       <c r="G48" t="n">
-        <v>20.71666666666665</v>
+        <v>20.71333333333332</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1633,21 +1779,24 @@
         <v>20.8</v>
       </c>
       <c r="C49" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="D49" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="E49" t="n">
         <v>20.8</v>
       </c>
       <c r="F49" t="n">
-        <v>43510.13455714285</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>20.72333333333332</v>
+        <v>20.71666666666665</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C50" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="D50" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="E50" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="F50" t="n">
-        <v>20000</v>
+        <v>43510.13455714285</v>
       </c>
       <c r="G50" t="n">
-        <v>20.71999999999998</v>
+        <v>20.72333333333332</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="C51" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="D51" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="E51" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="F51" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="G51" t="n">
-        <v>20.71499999999999</v>
+        <v>20.71999999999998</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="C52" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="D52" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="E52" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="F52" t="n">
-        <v>30</v>
+        <v>50000</v>
       </c>
       <c r="G52" t="n">
-        <v>20.71166666666666</v>
+        <v>20.71499999999999</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="C53" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="D53" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="E53" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G53" t="n">
-        <v>20.70999999999999</v>
+        <v>20.71166666666666</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1763,21 +1924,24 @@
         <v>20.7</v>
       </c>
       <c r="C54" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="D54" t="n">
         <v>20.7</v>
       </c>
       <c r="E54" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="F54" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>20.70499999999999</v>
+        <v>20.70999999999999</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,21 +1953,24 @@
         <v>20.7</v>
       </c>
       <c r="C55" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="D55" t="n">
         <v>20.7</v>
       </c>
       <c r="E55" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>20.70499999999999</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="C56" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="D56" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="E56" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="F56" t="n">
-        <v>1755.1456</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>20.70333333333332</v>
+        <v>20.70499999999999</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1841,21 +2011,24 @@
         <v>20.6</v>
       </c>
       <c r="C57" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="D57" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="E57" t="n">
         <v>20.6</v>
       </c>
       <c r="F57" t="n">
-        <v>36319.5249</v>
+        <v>1755.1456</v>
       </c>
       <c r="G57" t="n">
-        <v>20.70833333333332</v>
+        <v>20.70333333333332</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="C58" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="D58" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="E58" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="F58" t="n">
-        <v>34010.0881</v>
+        <v>36319.5249</v>
       </c>
       <c r="G58" t="n">
-        <v>20.71166666666666</v>
+        <v>20.70833333333332</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="C59" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="D59" t="n">
         <v>21.1</v>
       </c>
       <c r="E59" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>34010.0881</v>
       </c>
       <c r="G59" t="n">
-        <v>20.71999999999999</v>
+        <v>20.71166666666666</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="C60" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="D60" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="E60" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="F60" t="n">
-        <v>25000</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>20.72499999999999</v>
+        <v>20.71999999999999</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>20.9</v>
       </c>
       <c r="F61" t="n">
-        <v>429.665</v>
+        <v>25000</v>
       </c>
       <c r="G61" t="n">
-        <v>20.72833333333333</v>
+        <v>20.72499999999999</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="C62" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="D62" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="E62" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>429.665</v>
       </c>
       <c r="G62" t="n">
         <v>20.72833333333333</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="C63" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="D63" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="E63" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="F63" t="n">
         <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>20.73333333333333</v>
+        <v>20.72833333333333</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="C64" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="D64" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="E64" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="F64" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>20.73833333333333</v>
+        <v>20.73333333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="C65" t="n">
         <v>20.9</v>
       </c>
       <c r="D65" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="E65" t="n">
         <v>20.9</v>
       </c>
       <c r="F65" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G65" t="n">
-        <v>20.745</v>
+        <v>20.73833333333333</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>20.9</v>
       </c>
       <c r="F66" t="n">
-        <v>745.5389</v>
+        <v>50</v>
       </c>
       <c r="G66" t="n">
-        <v>20.75166666666667</v>
+        <v>20.745</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="C67" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="D67" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="E67" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="F67" t="n">
-        <v>16998.4107</v>
+        <v>745.5389</v>
       </c>
       <c r="G67" t="n">
-        <v>20.75666666666666</v>
+        <v>20.75166666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>20.8</v>
       </c>
       <c r="F68" t="n">
-        <v>3001.5893</v>
+        <v>16998.4107</v>
       </c>
       <c r="G68" t="n">
-        <v>20.75833333333333</v>
+        <v>20.75666666666666</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>20.8</v>
       </c>
       <c r="F69" t="n">
-        <v>50</v>
+        <v>3001.5893</v>
       </c>
       <c r="G69" t="n">
-        <v>20.76499999999999</v>
+        <v>20.75833333333333</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="C70" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D70" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="E70" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="F70" t="n">
-        <v>19000</v>
+        <v>50</v>
       </c>
       <c r="G70" t="n">
-        <v>20.77333333333333</v>
+        <v>20.76499999999999</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="C71" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="D71" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="E71" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="F71" t="n">
-        <v>52736.3914</v>
+        <v>19000</v>
       </c>
       <c r="G71" t="n">
-        <v>20.77499999999999</v>
+        <v>20.77333333333333</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C72" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="D72" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="E72" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="F72" t="n">
-        <v>748.3150000000001</v>
+        <v>52736.3914</v>
       </c>
       <c r="G72" t="n">
-        <v>20.77833333333333</v>
+        <v>20.77499999999999</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C73" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="D73" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="E73" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F73" t="n">
-        <v>126.1278</v>
+        <v>748.3150000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>20.77999999999999</v>
+        <v>20.77833333333333</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2283,21 +2504,24 @@
         <v>20.8</v>
       </c>
       <c r="C74" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="D74" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="E74" t="n">
         <v>20.8</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>126.1278</v>
       </c>
       <c r="G74" t="n">
-        <v>20.77833333333333</v>
+        <v>20.77999999999999</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="C75" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D75" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="E75" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="F75" t="n">
-        <v>271.5745</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>20.77999999999999</v>
+        <v>20.77833333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="C76" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="D76" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="E76" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="F76" t="n">
-        <v>34817.6564</v>
+        <v>271.5745</v>
       </c>
       <c r="G76" t="n">
-        <v>20.77833333333333</v>
+        <v>20.77999999999999</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2361,21 +2591,24 @@
         <v>21</v>
       </c>
       <c r="C77" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="D77" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="E77" t="n">
         <v>21</v>
       </c>
       <c r="F77" t="n">
-        <v>6819.4848</v>
+        <v>34817.6564</v>
       </c>
       <c r="G77" t="n">
-        <v>20.77999999999999</v>
+        <v>20.77833333333333</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2387,21 +2620,24 @@
         <v>21</v>
       </c>
       <c r="C78" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="D78" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="E78" t="n">
         <v>21</v>
       </c>
       <c r="F78" t="n">
-        <v>48.0769</v>
+        <v>6819.4848</v>
       </c>
       <c r="G78" t="n">
-        <v>20.78499999999999</v>
+        <v>20.77999999999999</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2413,21 +2649,24 @@
         <v>21</v>
       </c>
       <c r="C79" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="D79" t="n">
         <v>21</v>
       </c>
       <c r="E79" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="F79" t="n">
-        <v>77843.5699</v>
+        <v>48.0769</v>
       </c>
       <c r="G79" t="n">
-        <v>20.79</v>
+        <v>20.78499999999999</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="C80" t="n">
         <v>20.9</v>
       </c>
       <c r="D80" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="E80" t="n">
         <v>20.9</v>
       </c>
       <c r="F80" t="n">
-        <v>31198.4722</v>
+        <v>77843.5699</v>
       </c>
       <c r="G80" t="n">
-        <v>20.79833333333333</v>
+        <v>20.79</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,12 +2716,15 @@
         <v>20.9</v>
       </c>
       <c r="F81" t="n">
-        <v>203705.6889</v>
+        <v>31198.4722</v>
       </c>
       <c r="G81" t="n">
-        <v>20.79666666666667</v>
+        <v>20.79833333333333</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="C82" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="D82" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="E82" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="F82" t="n">
-        <v>11</v>
+        <v>203705.6889</v>
       </c>
       <c r="G82" t="n">
         <v>20.79666666666667</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="C83" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="D83" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="E83" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="F83" t="n">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G83" t="n">
-        <v>20.79833333333334</v>
+        <v>20.79666666666667</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="C84" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="D84" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="E84" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="F84" t="n">
-        <v>10947.0664</v>
+        <v>90</v>
       </c>
       <c r="G84" t="n">
-        <v>20.805</v>
+        <v>20.79833333333334</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,10 +2820,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="C85" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="D85" t="n">
         <v>21.1</v>
@@ -2578,12 +2832,15 @@
         <v>21</v>
       </c>
       <c r="F85" t="n">
-        <v>14085.9362</v>
+        <v>10947.0664</v>
       </c>
       <c r="G85" t="n">
-        <v>20.81</v>
+        <v>20.805</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="C86" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="D86" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="E86" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="F86" t="n">
-        <v>33200</v>
+        <v>14085.9362</v>
       </c>
       <c r="G86" t="n">
-        <v>20.81333333333333</v>
+        <v>20.81</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="C87" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="D87" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="E87" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="F87" t="n">
-        <v>11</v>
+        <v>33200</v>
       </c>
       <c r="G87" t="n">
-        <v>20.81833333333334</v>
+        <v>20.81333333333333</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="C88" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="D88" t="n">
         <v>21.4</v>
       </c>
       <c r="E88" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="F88" t="n">
-        <v>12537.8215</v>
+        <v>11</v>
       </c>
       <c r="G88" t="n">
-        <v>20.82</v>
+        <v>20.81833333333334</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="C89" t="n">
         <v>21.3</v>
       </c>
       <c r="D89" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E89" t="n">
         <v>21.3</v>
       </c>
-      <c r="E89" t="n">
-        <v>21.2</v>
-      </c>
       <c r="F89" t="n">
-        <v>2022</v>
+        <v>12537.8215</v>
       </c>
       <c r="G89" t="n">
-        <v>20.83</v>
+        <v>20.82</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,25 +2965,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="C90" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="D90" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="E90" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="F90" t="n">
-        <v>19349.0887</v>
+        <v>2022</v>
       </c>
       <c r="G90" t="n">
-        <v>20.83666666666666</v>
+        <v>20.83</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="C91" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="D91" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="E91" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="F91" t="n">
-        <v>30630.0945</v>
+        <v>19349.0887</v>
       </c>
       <c r="G91" t="n">
-        <v>20.84333333333333</v>
+        <v>20.83666666666666</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2751,21 +3026,24 @@
         <v>21.2</v>
       </c>
       <c r="C92" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="D92" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="E92" t="n">
         <v>21.2</v>
       </c>
       <c r="F92" t="n">
-        <v>140358.0301</v>
+        <v>30630.0945</v>
       </c>
       <c r="G92" t="n">
-        <v>20.855</v>
+        <v>20.84333333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,7 +3052,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="C93" t="n">
         <v>21.4</v>
@@ -2783,15 +3061,18 @@
         <v>21.4</v>
       </c>
       <c r="E93" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="F93" t="n">
-        <v>15542.8309</v>
+        <v>140358.0301</v>
       </c>
       <c r="G93" t="n">
-        <v>20.865</v>
+        <v>20.855</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="C94" t="n">
         <v>21.4</v>
       </c>
       <c r="D94" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="E94" t="n">
         <v>21.3</v>
       </c>
       <c r="F94" t="n">
-        <v>12473.3359</v>
+        <v>15542.8309</v>
       </c>
       <c r="G94" t="n">
-        <v>20.875</v>
+        <v>20.865</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="C95" t="n">
         <v>21.4</v>
       </c>
       <c r="D95" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="E95" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="F95" t="n">
-        <v>18693.5039</v>
+        <v>12473.3359</v>
       </c>
       <c r="G95" t="n">
-        <v>20.88500000000001</v>
+        <v>20.875</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,7 +3139,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="C96" t="n">
         <v>21.4</v>
@@ -2861,15 +3148,18 @@
         <v>21.4</v>
       </c>
       <c r="E96" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="F96" t="n">
-        <v>158.9252</v>
+        <v>18693.5039</v>
       </c>
       <c r="G96" t="n">
-        <v>20.89500000000001</v>
+        <v>20.88500000000001</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="C97" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="D97" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="E97" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="F97" t="n">
-        <v>768.2145</v>
+        <v>158.9252</v>
       </c>
       <c r="G97" t="n">
-        <v>20.90000000000001</v>
+        <v>20.89500000000001</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="C98" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="D98" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="E98" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="F98" t="n">
-        <v>2000</v>
+        <v>768.2145</v>
       </c>
       <c r="G98" t="n">
-        <v>20.90333333333334</v>
+        <v>20.90000000000001</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2936,18 +3232,21 @@
         <v>21</v>
       </c>
       <c r="D99" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="E99" t="n">
         <v>21</v>
       </c>
       <c r="F99" t="n">
-        <v>43086.7135</v>
+        <v>2000</v>
       </c>
       <c r="G99" t="n">
-        <v>20.90833333333334</v>
+        <v>20.90333333333334</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="C100" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="D100" t="n">
         <v>21.1</v>
       </c>
       <c r="E100" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="F100" t="n">
-        <v>7874.9777</v>
+        <v>43086.7135</v>
       </c>
       <c r="G100" t="n">
-        <v>20.91666666666667</v>
+        <v>20.90833333333334</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>21.1</v>
       </c>
       <c r="F101" t="n">
-        <v>400</v>
+        <v>7874.9777</v>
       </c>
       <c r="G101" t="n">
-        <v>20.92500000000001</v>
+        <v>20.91666666666667</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>21.1</v>
       </c>
       <c r="F102" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G102" t="n">
-        <v>20.93333333333334</v>
+        <v>20.92500000000001</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>21.1</v>
       </c>
       <c r="F103" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G103" t="n">
-        <v>20.94166666666667</v>
+        <v>20.93333333333334</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>21.1</v>
       </c>
       <c r="F104" t="n">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="G104" t="n">
-        <v>20.95000000000001</v>
+        <v>20.94166666666667</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>21.1</v>
       </c>
       <c r="F105" t="n">
-        <v>33000</v>
+        <v>3600</v>
       </c>
       <c r="G105" t="n">
-        <v>20.95833333333334</v>
+        <v>20.95000000000001</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="C106" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="D106" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="E106" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="F106" t="n">
-        <v>60</v>
+        <v>33000</v>
       </c>
       <c r="G106" t="n">
-        <v>20.97333333333334</v>
+        <v>20.95833333333334</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3153,9 +3473,12 @@
         <v>60</v>
       </c>
       <c r="G107" t="n">
-        <v>20.98500000000001</v>
+        <v>20.97333333333334</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,7 +3487,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="C108" t="n">
         <v>21.3</v>
@@ -3173,15 +3496,18 @@
         <v>21.3</v>
       </c>
       <c r="E108" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="F108" t="n">
-        <v>193.3802</v>
+        <v>60</v>
       </c>
       <c r="G108" t="n">
-        <v>20.99333333333334</v>
+        <v>20.98500000000001</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="C109" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="D109" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="E109" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>193.3802</v>
       </c>
       <c r="G109" t="n">
-        <v>20.99666666666667</v>
+        <v>20.99333333333334</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,12 +3557,15 @@
         <v>21.2</v>
       </c>
       <c r="F110" t="n">
-        <v>8.181800000000001</v>
+        <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>21.00666666666667</v>
+        <v>20.99666666666667</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="C111" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="D111" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="E111" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>8.181800000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>21.02000000000001</v>
+        <v>21.00666666666667</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,7 +3603,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="C112" t="n">
         <v>21.3</v>
@@ -3277,15 +3612,18 @@
         <v>21.3</v>
       </c>
       <c r="E112" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="F112" t="n">
-        <v>60383.8045</v>
+        <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>21.03500000000001</v>
+        <v>21.02000000000001</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3297,21 +3635,24 @@
         <v>21.2</v>
       </c>
       <c r="C113" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="D113" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E113" t="n">
         <v>21.2</v>
       </c>
-      <c r="E113" t="n">
-        <v>21</v>
-      </c>
       <c r="F113" t="n">
-        <v>135051.3179</v>
+        <v>60383.8045</v>
       </c>
       <c r="G113" t="n">
-        <v>21.04000000000001</v>
+        <v>21.03500000000001</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="C114" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="D114" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="E114" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="F114" t="n">
-        <v>390.4665</v>
+        <v>135051.3179</v>
       </c>
       <c r="G114" t="n">
-        <v>21.05166666666667</v>
+        <v>21.04000000000001</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="C115" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="D115" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="E115" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="F115" t="n">
-        <v>10</v>
+        <v>390.4665</v>
       </c>
       <c r="G115" t="n">
-        <v>21.05666666666667</v>
+        <v>21.05166666666667</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="C116" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="D116" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="E116" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="F116" t="n">
         <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>21.065</v>
+        <v>21.05666666666667</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>21.1</v>
       </c>
       <c r="F117" t="n">
-        <v>27641.872</v>
+        <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>21.06666666666667</v>
+        <v>21.065</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="C118" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="D118" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="E118" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>27641.872</v>
       </c>
       <c r="G118" t="n">
-        <v>21.06833333333333</v>
+        <v>21.06666666666667</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="C119" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="D119" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="E119" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="F119" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>21.07166666666667</v>
+        <v>21.06833333333333</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3479,21 +3838,24 @@
         <v>21.2</v>
       </c>
       <c r="C120" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="D120" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="E120" t="n">
         <v>21.2</v>
       </c>
       <c r="F120" t="n">
-        <v>1134.7094</v>
+        <v>100</v>
       </c>
       <c r="G120" t="n">
-        <v>21.07666666666666</v>
+        <v>21.07166666666667</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="C121" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="D121" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="E121" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="F121" t="n">
-        <v>36781.5443</v>
+        <v>1134.7094</v>
       </c>
       <c r="G121" t="n">
-        <v>21.07999999999999</v>
+        <v>21.07666666666666</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="C122" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="D122" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="E122" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="F122" t="n">
-        <v>79023.4433</v>
+        <v>36781.5443</v>
       </c>
       <c r="G122" t="n">
-        <v>21.09166666666666</v>
+        <v>21.07999999999999</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,10 +3922,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C123" t="n">
         <v>21.3</v>
-      </c>
-      <c r="C123" t="n">
-        <v>21.1</v>
       </c>
       <c r="D123" t="n">
         <v>21.3</v>
@@ -3566,12 +3934,15 @@
         <v>21.1</v>
       </c>
       <c r="F123" t="n">
-        <v>5077.23</v>
+        <v>79023.4433</v>
       </c>
       <c r="G123" t="n">
         <v>21.09166666666666</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="C124" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="D124" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="E124" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="F124" t="n">
-        <v>83257.3511</v>
+        <v>5077.23</v>
       </c>
       <c r="G124" t="n">
         <v>21.09166666666666</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="C125" t="n">
         <v>20.9</v>
       </c>
       <c r="D125" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="E125" t="n">
         <v>20.9</v>
       </c>
       <c r="F125" t="n">
-        <v>40302.9266</v>
+        <v>83257.3511</v>
       </c>
       <c r="G125" t="n">
         <v>21.09166666666666</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>20.9</v>
       </c>
       <c r="F126" t="n">
-        <v>86174.71400000001</v>
+        <v>40302.9266</v>
       </c>
       <c r="G126" t="n">
         <v>21.09166666666666</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="C127" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="D127" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="E127" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="F127" t="n">
-        <v>203689.5463</v>
+        <v>86174.71400000001</v>
       </c>
       <c r="G127" t="n">
-        <v>21.08666666666666</v>
+        <v>21.09166666666666</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="C128" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="D128" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="E128" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>203689.5463</v>
       </c>
       <c r="G128" t="n">
-        <v>21.08833333333333</v>
+        <v>21.08666666666666</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,7 +4096,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="C129" t="n">
         <v>20.9</v>
@@ -3719,15 +4105,18 @@
         <v>20.9</v>
       </c>
       <c r="E129" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="F129" t="n">
-        <v>42629.007</v>
+        <v>10</v>
       </c>
       <c r="G129" t="n">
-        <v>21.09</v>
+        <v>21.08833333333333</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3739,21 +4128,24 @@
         <v>20.8</v>
       </c>
       <c r="C130" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="D130" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="E130" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="F130" t="n">
-        <v>10</v>
+        <v>42629.007</v>
       </c>
       <c r="G130" t="n">
-        <v>21.08833333333333</v>
+        <v>21.09</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,7 +4166,7 @@
         <v>20.8</v>
       </c>
       <c r="F131" t="n">
-        <v>8470.769</v>
+        <v>10</v>
       </c>
       <c r="G131" t="n">
         <v>21.08833333333333</v>
@@ -3782,524 +4174,7 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C132" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D132" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="E132" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F132" t="n">
-        <v>95043.4617</v>
-      </c>
-      <c r="G132" t="n">
-        <v>21.09</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C133" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D133" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E133" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F133" t="n">
-        <v>10</v>
-      </c>
-      <c r="G133" t="n">
-        <v>21.08499999999999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="C134" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D134" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="E134" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F134" t="n">
-        <v>10</v>
-      </c>
-      <c r="G134" t="n">
-        <v>21.08499999999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C135" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D135" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E135" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F135" t="n">
-        <v>10</v>
-      </c>
-      <c r="G135" t="n">
-        <v>21.08166666666666</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C136" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D136" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E136" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F136" t="n">
-        <v>10</v>
-      </c>
-      <c r="G136" t="n">
-        <v>21.07333333333333</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C137" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D137" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="E137" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F137" t="n">
-        <v>720</v>
-      </c>
-      <c r="G137" t="n">
-        <v>21.06833333333333</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C138" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D138" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E138" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F138" t="n">
-        <v>10005.8406</v>
-      </c>
-      <c r="G138" t="n">
-        <v>21.06</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="C139" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D139" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="E139" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F139" t="n">
-        <v>390</v>
-      </c>
-      <c r="G139" t="n">
-        <v>21.05833333333333</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C140" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D140" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="E140" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F140" t="n">
-        <v>30</v>
-      </c>
-      <c r="G140" t="n">
-        <v>21.05666666666666</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C141" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D141" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E141" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F141" t="n">
-        <v>10.0001</v>
-      </c>
-      <c r="G141" t="n">
-        <v>21.05166666666666</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C142" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D142" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E142" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F142" t="n">
-        <v>6979.9999</v>
-      </c>
-      <c r="G142" t="n">
-        <v>21.04333333333332</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="C143" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D143" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="E143" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F143" t="n">
-        <v>10</v>
-      </c>
-      <c r="G143" t="n">
-        <v>21.04166666666665</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C144" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D144" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E144" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F144" t="n">
-        <v>46242.8302</v>
-      </c>
-      <c r="G144" t="n">
-        <v>21.03166666666665</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C145" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D145" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E145" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F145" t="n">
-        <v>222</v>
-      </c>
-      <c r="G145" t="n">
-        <v>21.02166666666665</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C146" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D146" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F146" t="n">
-        <v>45701.1016</v>
-      </c>
-      <c r="G146" t="n">
-        <v>21.00666666666666</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C147" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D147" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E147" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F147" t="n">
-        <v>25062.814</v>
-      </c>
-      <c r="G147" t="n">
-        <v>20.98999999999999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C148" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D148" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E148" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F148" t="n">
-        <v>56413.6845</v>
-      </c>
-      <c r="G148" t="n">
-        <v>20.97499999999999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C149" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D149" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E149" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F149" t="n">
-        <v>10</v>
-      </c>
-      <c r="G149" t="n">
-        <v>20.96499999999999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C150" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D150" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E150" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F150" t="n">
-        <v>28</v>
-      </c>
-      <c r="G150" t="n">
-        <v>20.95833333333333</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C151" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D151" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E151" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F151" t="n">
-        <v>30</v>
-      </c>
-      <c r="G151" t="n">
-        <v>20.945</v>
-      </c>
-      <c r="H151" t="n">
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
